--- a/Weather_app/data.xlsx
+++ b/Weather_app/data.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45344.65861997459</v>
+        <v>45344.65861997685</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -483,6 +483,19 @@
       </c>
       <c r="C4" t="n">
         <v>11.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45345.38261973601</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Warsaw, PL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>
